--- a/Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4BD6E-90C1-4B2D-8612-22BEB714675F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KUBTY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>KUBTY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,141 +689,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15536100</v>
+        <v>16726900</v>
       </c>
       <c r="E8" s="3">
-        <v>14157300</v>
+        <v>15829400</v>
       </c>
       <c r="F8" s="3">
-        <v>11041200</v>
+        <v>14428700</v>
       </c>
       <c r="G8" s="3">
-        <v>14076100</v>
+        <v>11252800</v>
       </c>
       <c r="H8" s="3">
-        <v>13381200</v>
+        <v>14345900</v>
       </c>
       <c r="I8" s="3">
-        <v>10356900</v>
+        <v>13637700</v>
       </c>
       <c r="J8" s="3">
+        <v>10555400</v>
+      </c>
+      <c r="K8" s="3">
         <v>8941100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11005100</v>
+        <v>11959300</v>
       </c>
       <c r="E9" s="3">
-        <v>9957000</v>
+        <v>22412500</v>
       </c>
       <c r="F9" s="3">
-        <v>7525300</v>
+        <v>10147800</v>
       </c>
       <c r="G9" s="3">
-        <v>9799200</v>
+        <v>7669500</v>
       </c>
       <c r="H9" s="3">
-        <v>9375600</v>
+        <v>9987000</v>
       </c>
       <c r="I9" s="3">
-        <v>7523100</v>
+        <v>9555300</v>
       </c>
       <c r="J9" s="3">
+        <v>7667300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6526900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4531000</v>
+        <v>4767600</v>
       </c>
       <c r="E10" s="3">
-        <v>4200300</v>
+        <v>-6583100</v>
       </c>
       <c r="F10" s="3">
-        <v>3515900</v>
+        <v>4280800</v>
       </c>
       <c r="G10" s="3">
-        <v>4276900</v>
+        <v>3583300</v>
       </c>
       <c r="H10" s="3">
-        <v>4005600</v>
+        <v>4358900</v>
       </c>
       <c r="I10" s="3">
-        <v>2833800</v>
+        <v>4082300</v>
       </c>
       <c r="J10" s="3">
+        <v>2888100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2414300</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +847,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,9 +874,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,63 +904,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>7900</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
-        <v>39900</v>
-      </c>
       <c r="G14" s="3">
-        <v>-6500</v>
+        <v>40700</v>
       </c>
       <c r="H14" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>-6600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22800</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +978,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13772500</v>
+        <v>15015500</v>
       </c>
       <c r="E17" s="3">
-        <v>12482900</v>
+        <v>14021800</v>
       </c>
       <c r="F17" s="3">
-        <v>9561000</v>
+        <v>12722100</v>
       </c>
       <c r="G17" s="3">
-        <v>12265400</v>
+        <v>9744200</v>
       </c>
       <c r="H17" s="3">
-        <v>11585600</v>
+        <v>12500400</v>
       </c>
       <c r="I17" s="3">
-        <v>9353100</v>
+        <v>11807700</v>
       </c>
       <c r="J17" s="3">
+        <v>9532400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8026500</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1763600</v>
+        <v>1711400</v>
       </c>
       <c r="E18" s="3">
-        <v>1674500</v>
+        <v>1807600</v>
       </c>
       <c r="F18" s="3">
-        <v>1480200</v>
+        <v>1706500</v>
       </c>
       <c r="G18" s="3">
-        <v>1810800</v>
+        <v>1508500</v>
       </c>
       <c r="H18" s="3">
-        <v>1795600</v>
+        <v>1845500</v>
       </c>
       <c r="I18" s="3">
-        <v>1003700</v>
+        <v>1830000</v>
       </c>
       <c r="J18" s="3">
+        <v>1023000</v>
+      </c>
+      <c r="K18" s="3">
         <v>914600</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,143 +1052,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>133000</v>
+        <v>71600</v>
       </c>
       <c r="E20" s="3">
-        <v>77100</v>
+        <v>135300</v>
       </c>
       <c r="F20" s="3">
-        <v>29500</v>
+        <v>78600</v>
       </c>
       <c r="G20" s="3">
-        <v>73600</v>
+        <v>30100</v>
       </c>
       <c r="H20" s="3">
-        <v>91900</v>
+        <v>75000</v>
       </c>
       <c r="I20" s="3">
-        <v>76100</v>
+        <v>93700</v>
       </c>
       <c r="J20" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2298300</v>
+        <v>2232100</v>
       </c>
       <c r="E21" s="3">
-        <v>2136300</v>
+        <v>2352800</v>
       </c>
       <c r="F21" s="3">
-        <v>1786400</v>
+        <v>2177700</v>
       </c>
       <c r="G21" s="3">
-        <v>2223500</v>
+        <v>1820900</v>
       </c>
       <c r="H21" s="3">
-        <v>2201000</v>
+        <v>2266500</v>
       </c>
       <c r="I21" s="3">
-        <v>1339300</v>
+        <v>2243500</v>
       </c>
       <c r="J21" s="3">
+        <v>1365300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1124200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>8100</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="F22" s="3">
-        <v>6200</v>
-      </c>
       <c r="G22" s="3">
-        <v>10500</v>
+        <v>6300</v>
       </c>
       <c r="H22" s="3">
-        <v>13300</v>
+        <v>10700</v>
       </c>
       <c r="I22" s="3">
-        <v>11400</v>
+        <v>13600</v>
       </c>
       <c r="J22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K22" s="3">
         <v>16800</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1888400</v>
+        <v>1783000</v>
       </c>
       <c r="E23" s="3">
-        <v>1747100</v>
+        <v>1934600</v>
       </c>
       <c r="F23" s="3">
-        <v>1503500</v>
+        <v>1780600</v>
       </c>
       <c r="G23" s="3">
-        <v>1873900</v>
+        <v>1532300</v>
       </c>
       <c r="H23" s="3">
-        <v>1874200</v>
+        <v>1909800</v>
       </c>
       <c r="I23" s="3">
-        <v>1068500</v>
+        <v>1910100</v>
       </c>
       <c r="J23" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="K23" s="3">
         <v>895300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>557300</v>
+        <v>444000</v>
       </c>
       <c r="E24" s="3">
-        <v>501600</v>
+        <v>661500</v>
       </c>
       <c r="F24" s="3">
-        <v>481300</v>
+        <v>511200</v>
       </c>
       <c r="G24" s="3">
-        <v>542900</v>
+        <v>490500</v>
       </c>
       <c r="H24" s="3">
-        <v>637900</v>
+        <v>553300</v>
       </c>
       <c r="I24" s="3">
-        <v>361400</v>
+        <v>650100</v>
       </c>
       <c r="J24" s="3">
+        <v>368300</v>
+      </c>
+      <c r="K24" s="3">
         <v>324200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1229,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1331100</v>
+        <v>1338900</v>
       </c>
       <c r="E26" s="3">
-        <v>1245600</v>
+        <v>1273100</v>
       </c>
       <c r="F26" s="3">
-        <v>1022200</v>
+        <v>1269400</v>
       </c>
       <c r="G26" s="3">
-        <v>1331000</v>
+        <v>1041800</v>
       </c>
       <c r="H26" s="3">
-        <v>1236300</v>
+        <v>1356500</v>
       </c>
       <c r="I26" s="3">
-        <v>707100</v>
+        <v>1260000</v>
       </c>
       <c r="J26" s="3">
+        <v>720700</v>
+      </c>
+      <c r="K26" s="3">
         <v>571100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1273200</v>
+        <v>1252900</v>
       </c>
       <c r="E27" s="3">
-        <v>1175100</v>
+        <v>1153700</v>
       </c>
       <c r="F27" s="3">
-        <v>976600</v>
+        <v>1197700</v>
       </c>
       <c r="G27" s="3">
-        <v>1241900</v>
+        <v>995400</v>
       </c>
       <c r="H27" s="3">
-        <v>1167800</v>
+        <v>1265700</v>
       </c>
       <c r="I27" s="3">
-        <v>653600</v>
+        <v>1190200</v>
       </c>
       <c r="J27" s="3">
+        <v>666100</v>
+      </c>
+      <c r="K27" s="3">
         <v>546000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,17 +1319,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-62900</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-64100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1254,9 +1349,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1379,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,63 +1409,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-133000</v>
+        <v>-71600</v>
       </c>
       <c r="E32" s="3">
-        <v>-77100</v>
+        <v>-135300</v>
       </c>
       <c r="F32" s="3">
-        <v>-29500</v>
+        <v>-78600</v>
       </c>
       <c r="G32" s="3">
-        <v>-73600</v>
+        <v>-30100</v>
       </c>
       <c r="H32" s="3">
-        <v>-91900</v>
+        <v>-75000</v>
       </c>
       <c r="I32" s="3">
-        <v>-76100</v>
+        <v>-93700</v>
       </c>
       <c r="J32" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1210300</v>
+        <v>1252900</v>
       </c>
       <c r="E33" s="3">
-        <v>1175100</v>
+        <v>1089600</v>
       </c>
       <c r="F33" s="3">
-        <v>976600</v>
+        <v>1197700</v>
       </c>
       <c r="G33" s="3">
-        <v>1241900</v>
+        <v>995400</v>
       </c>
       <c r="H33" s="3">
-        <v>1167800</v>
+        <v>1265700</v>
       </c>
       <c r="I33" s="3">
-        <v>653600</v>
+        <v>1190200</v>
       </c>
       <c r="J33" s="3">
+        <v>666100</v>
+      </c>
+      <c r="K33" s="3">
         <v>546000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1499,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1210300</v>
+        <v>1252900</v>
       </c>
       <c r="E35" s="3">
-        <v>1175100</v>
+        <v>1089600</v>
       </c>
       <c r="F35" s="3">
-        <v>976600</v>
+        <v>1197700</v>
       </c>
       <c r="G35" s="3">
-        <v>1241900</v>
+        <v>995400</v>
       </c>
       <c r="H35" s="3">
-        <v>1167800</v>
+        <v>1265700</v>
       </c>
       <c r="I35" s="3">
-        <v>653600</v>
+        <v>1190200</v>
       </c>
       <c r="J35" s="3">
+        <v>666100</v>
+      </c>
+      <c r="K35" s="3">
         <v>546000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1581,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,251 +1595,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4093000</v>
+        <v>2071300</v>
       </c>
       <c r="E41" s="3">
-        <v>1502700</v>
+        <v>4171400</v>
       </c>
       <c r="F41" s="3">
-        <v>1297600</v>
+        <v>1531500</v>
       </c>
       <c r="G41" s="3">
-        <v>1002500</v>
+        <v>1322400</v>
       </c>
       <c r="H41" s="3">
-        <v>771900</v>
+        <v>1021700</v>
       </c>
       <c r="I41" s="3">
-        <v>980400</v>
+        <v>786700</v>
       </c>
       <c r="J41" s="3">
+        <v>999200</v>
+      </c>
+      <c r="K41" s="3">
         <v>892000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>472600</v>
+        <v>491500</v>
       </c>
       <c r="E42" s="3">
-        <v>54000</v>
+        <v>481700</v>
       </c>
       <c r="F42" s="3">
-        <v>67400</v>
+        <v>55100</v>
       </c>
       <c r="G42" s="3">
-        <v>80600</v>
+        <v>68700</v>
       </c>
       <c r="H42" s="3">
-        <v>41100</v>
+        <v>82200</v>
       </c>
       <c r="I42" s="3">
-        <v>37900</v>
-      </c>
-      <c r="J42" s="3" t="s">
+        <v>41900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16174100</v>
+        <v>8426000</v>
       </c>
       <c r="E43" s="3">
-        <v>7779000</v>
+        <v>16484100</v>
       </c>
       <c r="F43" s="3">
-        <v>7554400</v>
+        <v>7928100</v>
       </c>
       <c r="G43" s="3">
-        <v>7869500</v>
+        <v>7699100</v>
       </c>
       <c r="H43" s="3">
-        <v>6782800</v>
+        <v>8020400</v>
       </c>
       <c r="I43" s="3">
-        <v>5377000</v>
+        <v>6912800</v>
       </c>
       <c r="J43" s="3">
+        <v>5480100</v>
+      </c>
+      <c r="K43" s="3">
         <v>4425400</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6398600</v>
+        <v>3351100</v>
       </c>
       <c r="E44" s="3">
-        <v>3159300</v>
+        <v>6521200</v>
       </c>
       <c r="F44" s="3">
-        <v>6323300</v>
+        <v>3219900</v>
       </c>
       <c r="G44" s="3">
-        <v>2998400</v>
+        <v>6444500</v>
       </c>
       <c r="H44" s="3">
-        <v>2658900</v>
+        <v>3055800</v>
       </c>
       <c r="I44" s="3">
-        <v>2053300</v>
+        <v>2709900</v>
       </c>
       <c r="J44" s="3">
+        <v>2092700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1792400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1458200</v>
+        <v>481400</v>
       </c>
       <c r="E45" s="3">
-        <v>1369400</v>
+        <v>1486100</v>
       </c>
       <c r="F45" s="3">
-        <v>2353100</v>
+        <v>1395700</v>
       </c>
       <c r="G45" s="3">
-        <v>848600</v>
+        <v>2398200</v>
       </c>
       <c r="H45" s="3">
-        <v>690500</v>
+        <v>864800</v>
       </c>
       <c r="I45" s="3">
-        <v>551500</v>
+        <v>703800</v>
       </c>
       <c r="J45" s="3">
+        <v>562100</v>
+      </c>
+      <c r="K45" s="3">
         <v>571800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14266700</v>
+        <v>14821300</v>
       </c>
       <c r="E46" s="3">
-        <v>13864500</v>
+        <v>14540200</v>
       </c>
       <c r="F46" s="3">
-        <v>13223800</v>
+        <v>14130200</v>
       </c>
       <c r="G46" s="3">
-        <v>12799500</v>
+        <v>13477200</v>
       </c>
       <c r="H46" s="3">
-        <v>10945200</v>
+        <v>13044800</v>
       </c>
       <c r="I46" s="3">
-        <v>9000200</v>
+        <v>11155000</v>
       </c>
       <c r="J46" s="3">
+        <v>9172700</v>
+      </c>
+      <c r="K46" s="3">
         <v>7681500</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2545300</v>
+        <v>1643600</v>
       </c>
       <c r="E47" s="3">
-        <v>599700</v>
+        <v>2594100</v>
       </c>
       <c r="F47" s="3">
-        <v>787600</v>
+        <v>611200</v>
       </c>
       <c r="G47" s="3">
-        <v>546700</v>
+        <v>802700</v>
       </c>
       <c r="H47" s="3">
-        <v>512600</v>
+        <v>557200</v>
       </c>
       <c r="I47" s="3">
-        <v>449100</v>
+        <v>522400</v>
       </c>
       <c r="J47" s="3">
+        <v>457700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2873400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5818500</v>
+        <v>2983500</v>
       </c>
       <c r="E48" s="3">
-        <v>2787200</v>
+        <v>5930000</v>
       </c>
       <c r="F48" s="3">
-        <v>2535700</v>
+        <v>2840600</v>
       </c>
       <c r="G48" s="3">
-        <v>2635200</v>
+        <v>2584300</v>
       </c>
       <c r="H48" s="3">
-        <v>2507600</v>
+        <v>2685700</v>
       </c>
       <c r="I48" s="3">
-        <v>2266500</v>
+        <v>2555600</v>
       </c>
       <c r="J48" s="3">
+        <v>2310000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1996300</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>840800</v>
+        <v>451500</v>
       </c>
       <c r="E49" s="3">
-        <v>408500</v>
+        <v>856900</v>
       </c>
       <c r="F49" s="3">
-        <v>522100</v>
+        <v>416400</v>
       </c>
       <c r="G49" s="3">
-        <v>307800</v>
+        <v>532100</v>
       </c>
       <c r="H49" s="3">
-        <v>307200</v>
+        <v>313700</v>
       </c>
       <c r="I49" s="3">
-        <v>256400</v>
+        <v>313000</v>
       </c>
       <c r="J49" s="3">
+        <v>261300</v>
+      </c>
+      <c r="K49" s="3">
         <v>238600</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1892,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1922,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12636400</v>
+        <v>6276800</v>
       </c>
       <c r="E52" s="3">
-        <v>6028200</v>
+        <v>12878600</v>
       </c>
       <c r="F52" s="3">
-        <v>5893300</v>
+        <v>6143700</v>
       </c>
       <c r="G52" s="3">
-        <v>5680200</v>
+        <v>6006200</v>
       </c>
       <c r="H52" s="3">
-        <v>4395800</v>
+        <v>5789000</v>
       </c>
       <c r="I52" s="3">
-        <v>3494200</v>
+        <v>4480000</v>
       </c>
       <c r="J52" s="3">
+        <v>3561200</v>
+      </c>
+      <c r="K52" s="3">
         <v>405700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1982,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25123100</v>
+        <v>26176700</v>
       </c>
       <c r="E54" s="3">
-        <v>23688100</v>
+        <v>25604600</v>
       </c>
       <c r="F54" s="3">
-        <v>22467100</v>
+        <v>24142100</v>
       </c>
       <c r="G54" s="3">
-        <v>21969400</v>
+        <v>22897700</v>
       </c>
       <c r="H54" s="3">
-        <v>18668300</v>
+        <v>22390500</v>
       </c>
       <c r="I54" s="3">
-        <v>15466400</v>
+        <v>19026100</v>
       </c>
       <c r="J54" s="3">
+        <v>15762800</v>
+      </c>
+      <c r="K54" s="3">
         <v>13195600</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +2029,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,170 +2043,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5075800</v>
+        <v>2773100</v>
       </c>
       <c r="E57" s="3">
-        <v>2269500</v>
+        <v>5173100</v>
       </c>
       <c r="F57" s="3">
-        <v>2309200</v>
+        <v>2313000</v>
       </c>
       <c r="G57" s="3">
-        <v>2025300</v>
+        <v>2353400</v>
       </c>
       <c r="H57" s="3">
-        <v>2135100</v>
+        <v>2064100</v>
       </c>
       <c r="I57" s="3">
-        <v>2155600</v>
+        <v>2176000</v>
       </c>
       <c r="J57" s="3">
+        <v>2197000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1765800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6454200</v>
+        <v>3155500</v>
       </c>
       <c r="E58" s="3">
-        <v>3007800</v>
+        <v>6577900</v>
       </c>
       <c r="F58" s="3">
-        <v>3054200</v>
+        <v>3065400</v>
       </c>
       <c r="G58" s="3">
-        <v>2551300</v>
+        <v>3112800</v>
       </c>
       <c r="H58" s="3">
-        <v>2406800</v>
+        <v>2600200</v>
       </c>
       <c r="I58" s="3">
-        <v>1660100</v>
+        <v>2452900</v>
       </c>
       <c r="J58" s="3">
+        <v>1691900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1718500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4760000</v>
+        <v>2413700</v>
       </c>
       <c r="E59" s="3">
-        <v>2143500</v>
+        <v>4851200</v>
       </c>
       <c r="F59" s="3">
-        <v>1851900</v>
+        <v>2184600</v>
       </c>
       <c r="G59" s="3">
-        <v>1900200</v>
+        <v>1887400</v>
       </c>
       <c r="H59" s="3">
-        <v>1835000</v>
+        <v>1936600</v>
       </c>
       <c r="I59" s="3">
-        <v>1460600</v>
+        <v>1870200</v>
       </c>
       <c r="J59" s="3">
+        <v>1488600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1269900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8137800</v>
+        <v>8342300</v>
       </c>
       <c r="E60" s="3">
-        <v>7420800</v>
+        <v>8293800</v>
       </c>
       <c r="F60" s="3">
-        <v>7166100</v>
+        <v>7563000</v>
       </c>
       <c r="G60" s="3">
-        <v>6476900</v>
+        <v>7303400</v>
       </c>
       <c r="H60" s="3">
-        <v>6376800</v>
+        <v>6601000</v>
       </c>
       <c r="I60" s="3">
-        <v>5276400</v>
+        <v>6499100</v>
       </c>
       <c r="J60" s="3">
+        <v>5377500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4754200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4174300</v>
+        <v>4431500</v>
       </c>
       <c r="E61" s="3">
-        <v>4247800</v>
+        <v>4254300</v>
       </c>
       <c r="F61" s="3">
-        <v>3764200</v>
+        <v>4329200</v>
       </c>
       <c r="G61" s="3">
-        <v>4257200</v>
+        <v>3836300</v>
       </c>
       <c r="H61" s="3">
-        <v>2799400</v>
+        <v>4338800</v>
       </c>
       <c r="I61" s="3">
-        <v>2424700</v>
+        <v>2853000</v>
       </c>
       <c r="J61" s="3">
+        <v>2471200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1635600</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1292600</v>
+        <v>508000</v>
       </c>
       <c r="E62" s="3">
-        <v>737500</v>
+        <v>1317400</v>
       </c>
       <c r="F62" s="3">
-        <v>728200</v>
+        <v>751700</v>
       </c>
       <c r="G62" s="3">
-        <v>774100</v>
+        <v>742200</v>
       </c>
       <c r="H62" s="3">
-        <v>616700</v>
+        <v>789000</v>
       </c>
       <c r="I62" s="3">
-        <v>575200</v>
+        <v>628500</v>
       </c>
       <c r="J62" s="3">
+        <v>586200</v>
+      </c>
+      <c r="K62" s="3">
         <v>532800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2250,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2280,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2310,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13671100</v>
+        <v>14064500</v>
       </c>
       <c r="E66" s="3">
-        <v>13055100</v>
+        <v>13933100</v>
       </c>
       <c r="F66" s="3">
-        <v>12352500</v>
+        <v>13305300</v>
       </c>
       <c r="G66" s="3">
-        <v>12203500</v>
+        <v>12589200</v>
       </c>
       <c r="H66" s="3">
-        <v>10376500</v>
+        <v>12437400</v>
       </c>
       <c r="I66" s="3">
-        <v>8738300</v>
+        <v>10575400</v>
       </c>
       <c r="J66" s="3">
+        <v>8905800</v>
+      </c>
+      <c r="K66" s="3">
         <v>7401000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2357,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2384,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2414,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2444,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2474,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18680100</v>
+        <v>10264000</v>
       </c>
       <c r="E72" s="3">
-        <v>8701000</v>
+        <v>19038100</v>
       </c>
       <c r="F72" s="3">
-        <v>7888200</v>
+        <v>8867700</v>
       </c>
       <c r="G72" s="3">
-        <v>7256400</v>
+        <v>8039300</v>
       </c>
       <c r="H72" s="3">
-        <v>6415500</v>
+        <v>7395500</v>
       </c>
       <c r="I72" s="3">
-        <v>5452200</v>
+        <v>6538400</v>
       </c>
       <c r="J72" s="3">
+        <v>5556700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5146800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2534,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2564,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2594,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11452000</v>
+        <v>12112200</v>
       </c>
       <c r="E76" s="3">
-        <v>10633000</v>
+        <v>11671500</v>
       </c>
       <c r="F76" s="3">
-        <v>10114500</v>
+        <v>10836800</v>
       </c>
       <c r="G76" s="3">
-        <v>9765900</v>
+        <v>10308400</v>
       </c>
       <c r="H76" s="3">
-        <v>8291800</v>
+        <v>9953000</v>
       </c>
       <c r="I76" s="3">
-        <v>6728000</v>
+        <v>8450700</v>
       </c>
       <c r="J76" s="3">
+        <v>6857000</v>
+      </c>
+      <c r="K76" s="3">
         <v>5794600</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2654,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1210300</v>
+        <v>1252900</v>
       </c>
       <c r="E81" s="3">
-        <v>1175100</v>
+        <v>1089600</v>
       </c>
       <c r="F81" s="3">
-        <v>976600</v>
+        <v>1197700</v>
       </c>
       <c r="G81" s="3">
-        <v>1241900</v>
+        <v>995400</v>
       </c>
       <c r="H81" s="3">
-        <v>1167800</v>
+        <v>1265700</v>
       </c>
       <c r="I81" s="3">
-        <v>653600</v>
+        <v>1190200</v>
       </c>
       <c r="J81" s="3">
+        <v>666100</v>
+      </c>
+      <c r="K81" s="3">
         <v>546000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2736,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>401800</v>
+        <v>448600</v>
       </c>
       <c r="E83" s="3">
-        <v>384700</v>
+        <v>409500</v>
       </c>
       <c r="F83" s="3">
-        <v>276700</v>
+        <v>392100</v>
       </c>
       <c r="G83" s="3">
-        <v>339200</v>
+        <v>282000</v>
       </c>
       <c r="H83" s="3">
-        <v>313500</v>
+        <v>345700</v>
       </c>
       <c r="I83" s="3">
-        <v>259500</v>
+        <v>319500</v>
       </c>
       <c r="J83" s="3">
+        <v>264500</v>
+      </c>
+      <c r="K83" s="3">
         <v>212100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2793,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2823,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2853,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2883,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2913,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1971700</v>
+        <v>805900</v>
       </c>
       <c r="E89" s="3">
-        <v>1640800</v>
+        <v>2009500</v>
       </c>
       <c r="F89" s="3">
-        <v>1747700</v>
+        <v>1672200</v>
       </c>
       <c r="G89" s="3">
-        <v>745100</v>
+        <v>1781200</v>
       </c>
       <c r="H89" s="3">
-        <v>739100</v>
+        <v>759400</v>
       </c>
       <c r="I89" s="3">
-        <v>452200</v>
+        <v>753200</v>
       </c>
       <c r="J89" s="3">
+        <v>460900</v>
+      </c>
+      <c r="K89" s="3">
         <v>708700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2960,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-571300</v>
+        <v>-573100</v>
       </c>
       <c r="E91" s="3">
-        <v>-498000</v>
+        <v>-582300</v>
       </c>
       <c r="F91" s="3">
-        <v>-348300</v>
+        <v>-507500</v>
       </c>
       <c r="G91" s="3">
-        <v>-414100</v>
+        <v>-355000</v>
       </c>
       <c r="H91" s="3">
-        <v>-471500</v>
+        <v>-422100</v>
       </c>
       <c r="I91" s="3">
-        <v>-413800</v>
+        <v>-480500</v>
       </c>
       <c r="J91" s="3">
+        <v>-421700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-239200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +3017,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3047,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1156100</v>
+        <v>-531200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1485900</v>
+        <v>-1178300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1155800</v>
+        <v>-1514400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1042300</v>
+        <v>-1178000</v>
       </c>
       <c r="H94" s="3">
-        <v>-924300</v>
+        <v>-1062300</v>
       </c>
       <c r="I94" s="3">
-        <v>-614200</v>
+        <v>-942000</v>
       </c>
       <c r="J94" s="3">
+        <v>-626000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-620300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,35 +3094,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-340800</v>
+        <v>-367900</v>
       </c>
       <c r="E96" s="3">
-        <v>-309000</v>
+        <v>-347300</v>
       </c>
       <c r="F96" s="3">
-        <v>-331400</v>
+        <v>-314900</v>
       </c>
       <c r="G96" s="3">
-        <v>-332700</v>
+        <v>-337800</v>
       </c>
       <c r="H96" s="3">
-        <v>-211700</v>
+        <v>-339000</v>
       </c>
       <c r="I96" s="3">
-        <v>-178300</v>
+        <v>-215800</v>
       </c>
       <c r="J96" s="3">
+        <v>-181700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-157000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3151,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3181,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3211,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-288900</v>
+        <v>-251500</v>
       </c>
       <c r="E100" s="3">
-        <v>100800</v>
+        <v>-294500</v>
       </c>
       <c r="F100" s="3">
-        <v>-245400</v>
+        <v>102700</v>
       </c>
       <c r="G100" s="3">
-        <v>466600</v>
+        <v>-250100</v>
       </c>
       <c r="H100" s="3">
-        <v>28500</v>
+        <v>475500</v>
       </c>
       <c r="I100" s="3">
-        <v>192100</v>
+        <v>29100</v>
       </c>
       <c r="J100" s="3">
+        <v>195800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-117700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17100</v>
+        <v>-37700</v>
       </c>
       <c r="E101" s="3">
-        <v>-50400</v>
+        <v>17400</v>
       </c>
       <c r="F101" s="3">
-        <v>-46200</v>
+        <v>-51400</v>
       </c>
       <c r="G101" s="3">
-        <v>61200</v>
+        <v>-47000</v>
       </c>
       <c r="H101" s="3">
-        <v>43500</v>
+        <v>62400</v>
       </c>
       <c r="I101" s="3">
-        <v>58400</v>
+        <v>44400</v>
       </c>
       <c r="J101" s="3">
+        <v>59500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>543800</v>
+        <v>-14400</v>
       </c>
       <c r="E102" s="3">
-        <v>205200</v>
+        <v>554200</v>
       </c>
       <c r="F102" s="3">
-        <v>300300</v>
+        <v>209100</v>
       </c>
       <c r="G102" s="3">
-        <v>230600</v>
+        <v>306100</v>
       </c>
       <c r="H102" s="3">
-        <v>-113200</v>
+        <v>235000</v>
       </c>
       <c r="I102" s="3">
-        <v>88500</v>
+        <v>-115400</v>
       </c>
       <c r="J102" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-42000</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4BD6E-90C1-4B2D-8612-22BEB714675F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KUBTY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>KUBTY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,33 +654,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,97 +710,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16726900</v>
+        <v>16819400</v>
       </c>
       <c r="E8" s="3">
-        <v>15829400</v>
+        <v>15916900</v>
       </c>
       <c r="F8" s="3">
-        <v>14428700</v>
+        <v>14508500</v>
       </c>
       <c r="G8" s="3">
-        <v>11252800</v>
+        <v>11315000</v>
       </c>
       <c r="H8" s="3">
-        <v>14345900</v>
+        <v>14425300</v>
       </c>
       <c r="I8" s="3">
-        <v>13637700</v>
+        <v>13713100</v>
       </c>
       <c r="J8" s="3">
-        <v>10555400</v>
+        <v>10613700</v>
       </c>
       <c r="K8" s="3">
         <v>8941100</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11959300</v>
+        <v>12025400</v>
       </c>
       <c r="E9" s="3">
-        <v>22412500</v>
+        <v>22536500</v>
       </c>
       <c r="F9" s="3">
-        <v>10147800</v>
+        <v>10203900</v>
       </c>
       <c r="G9" s="3">
-        <v>7669500</v>
+        <v>7711900</v>
       </c>
       <c r="H9" s="3">
-        <v>9987000</v>
+        <v>10042300</v>
       </c>
       <c r="I9" s="3">
-        <v>9555300</v>
+        <v>9608200</v>
       </c>
       <c r="J9" s="3">
-        <v>7667300</v>
+        <v>7709700</v>
       </c>
       <c r="K9" s="3">
         <v>6526900</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4767600</v>
+        <v>4793900</v>
       </c>
       <c r="E10" s="3">
-        <v>-6583100</v>
+        <v>-6619500</v>
       </c>
       <c r="F10" s="3">
-        <v>4280800</v>
+        <v>4304500</v>
       </c>
       <c r="G10" s="3">
-        <v>3583300</v>
+        <v>3603100</v>
       </c>
       <c r="H10" s="3">
-        <v>4358900</v>
+        <v>4383000</v>
       </c>
       <c r="I10" s="3">
-        <v>4082300</v>
+        <v>4104900</v>
       </c>
       <c r="J10" s="3">
-        <v>2888100</v>
+        <v>2904100</v>
       </c>
       <c r="K10" s="3">
         <v>2414300</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,7 +814,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,7 +844,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,12 +874,12 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-18200</v>
       </c>
       <c r="E14" s="3">
         <v>8100</v>
@@ -923,10 +888,10 @@
         <v>1800</v>
       </c>
       <c r="G14" s="3">
-        <v>40700</v>
+        <v>40900</v>
       </c>
       <c r="H14" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="I14" s="3">
         <v>14700</v>
@@ -939,7 +904,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -969,7 +934,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -980,67 +945,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15015500</v>
+        <v>15098500</v>
       </c>
       <c r="E17" s="3">
-        <v>14021800</v>
+        <v>14099400</v>
       </c>
       <c r="F17" s="3">
-        <v>12722100</v>
+        <v>12792500</v>
       </c>
       <c r="G17" s="3">
-        <v>9744200</v>
+        <v>9798100</v>
       </c>
       <c r="H17" s="3">
-        <v>12500400</v>
+        <v>12569600</v>
       </c>
       <c r="I17" s="3">
-        <v>11807700</v>
+        <v>11873000</v>
       </c>
       <c r="J17" s="3">
-        <v>9532400</v>
+        <v>9585100</v>
       </c>
       <c r="K17" s="3">
         <v>8026500</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1711400</v>
+        <v>1720900</v>
       </c>
       <c r="E18" s="3">
-        <v>1807600</v>
+        <v>1817600</v>
       </c>
       <c r="F18" s="3">
-        <v>1706500</v>
+        <v>1716000</v>
       </c>
       <c r="G18" s="3">
-        <v>1508500</v>
+        <v>1516900</v>
       </c>
       <c r="H18" s="3">
-        <v>1845500</v>
+        <v>1855700</v>
       </c>
       <c r="I18" s="3">
-        <v>1830000</v>
+        <v>1840100</v>
       </c>
       <c r="J18" s="3">
-        <v>1023000</v>
+        <v>1028600</v>
       </c>
       <c r="K18" s="3">
         <v>914600</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,84 +1019,84 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71600</v>
+        <v>81400</v>
       </c>
       <c r="E20" s="3">
-        <v>135300</v>
+        <v>136100</v>
       </c>
       <c r="F20" s="3">
-        <v>78600</v>
+        <v>79100</v>
       </c>
       <c r="G20" s="3">
-        <v>30100</v>
+        <v>30300</v>
       </c>
       <c r="H20" s="3">
-        <v>75000</v>
+        <v>75400</v>
       </c>
       <c r="I20" s="3">
-        <v>93700</v>
+        <v>94200</v>
       </c>
       <c r="J20" s="3">
-        <v>77600</v>
+        <v>78000</v>
       </c>
       <c r="K20" s="3">
         <v>-2500</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2232100</v>
+        <v>2254300</v>
       </c>
       <c r="E21" s="3">
-        <v>2352800</v>
+        <v>2364800</v>
       </c>
       <c r="F21" s="3">
-        <v>2177700</v>
+        <v>2190100</v>
       </c>
       <c r="G21" s="3">
-        <v>1820900</v>
+        <v>1831300</v>
       </c>
       <c r="H21" s="3">
-        <v>2266500</v>
+        <v>2279500</v>
       </c>
       <c r="I21" s="3">
-        <v>2243500</v>
+        <v>2256300</v>
       </c>
       <c r="J21" s="3">
-        <v>1365300</v>
+        <v>1373100</v>
       </c>
       <c r="K21" s="3">
         <v>1124200</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>9400</v>
       </c>
       <c r="E22" s="3">
         <v>8300</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G22" s="3">
         <v>6300</v>
       </c>
       <c r="H22" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="I22" s="3">
         <v>13600</v>
@@ -1144,67 +1109,67 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1783000</v>
+        <v>1792800</v>
       </c>
       <c r="E23" s="3">
-        <v>1934600</v>
+        <v>1945300</v>
       </c>
       <c r="F23" s="3">
-        <v>1780600</v>
+        <v>1790500</v>
       </c>
       <c r="G23" s="3">
-        <v>1532300</v>
+        <v>1540800</v>
       </c>
       <c r="H23" s="3">
-        <v>1909800</v>
+        <v>1920300</v>
       </c>
       <c r="I23" s="3">
-        <v>1910100</v>
+        <v>1920700</v>
       </c>
       <c r="J23" s="3">
-        <v>1089000</v>
+        <v>1095000</v>
       </c>
       <c r="K23" s="3">
         <v>895300</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>444000</v>
+        <v>446500</v>
       </c>
       <c r="E24" s="3">
-        <v>661500</v>
+        <v>570500</v>
       </c>
       <c r="F24" s="3">
-        <v>511200</v>
+        <v>514000</v>
       </c>
       <c r="G24" s="3">
-        <v>490500</v>
+        <v>493200</v>
       </c>
       <c r="H24" s="3">
-        <v>553300</v>
+        <v>556400</v>
       </c>
       <c r="I24" s="3">
-        <v>650100</v>
+        <v>653700</v>
       </c>
       <c r="J24" s="3">
-        <v>368300</v>
+        <v>370300</v>
       </c>
       <c r="K24" s="3">
         <v>324200</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,67 +1199,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1338900</v>
+        <v>1346300</v>
       </c>
       <c r="E26" s="3">
-        <v>1273100</v>
+        <v>1374800</v>
       </c>
       <c r="F26" s="3">
-        <v>1269400</v>
+        <v>1276500</v>
       </c>
       <c r="G26" s="3">
-        <v>1041800</v>
+        <v>1047600</v>
       </c>
       <c r="H26" s="3">
-        <v>1356500</v>
+        <v>1364000</v>
       </c>
       <c r="I26" s="3">
-        <v>1260000</v>
+        <v>1266900</v>
       </c>
       <c r="J26" s="3">
-        <v>720700</v>
+        <v>724700</v>
       </c>
       <c r="K26" s="3">
         <v>571100</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1252900</v>
+        <v>1259800</v>
       </c>
       <c r="E27" s="3">
-        <v>1153700</v>
+        <v>1254800</v>
       </c>
       <c r="F27" s="3">
-        <v>1197700</v>
+        <v>1204300</v>
       </c>
       <c r="G27" s="3">
-        <v>995400</v>
+        <v>1000900</v>
       </c>
       <c r="H27" s="3">
-        <v>1265700</v>
+        <v>1272700</v>
       </c>
       <c r="I27" s="3">
-        <v>1190200</v>
+        <v>1196800</v>
       </c>
       <c r="J27" s="3">
-        <v>666100</v>
+        <v>669800</v>
       </c>
       <c r="K27" s="3">
         <v>546000</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1324,7 +1289,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1332,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>-64100</v>
+        <v>-94700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1354,7 +1319,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1349,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1414,67 +1379,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71600</v>
+        <v>-81400</v>
       </c>
       <c r="E32" s="3">
-        <v>-135300</v>
+        <v>-136100</v>
       </c>
       <c r="F32" s="3">
-        <v>-78600</v>
+        <v>-79100</v>
       </c>
       <c r="G32" s="3">
-        <v>-30100</v>
+        <v>-30300</v>
       </c>
       <c r="H32" s="3">
-        <v>-75000</v>
+        <v>-75400</v>
       </c>
       <c r="I32" s="3">
-        <v>-93700</v>
+        <v>-94200</v>
       </c>
       <c r="J32" s="3">
-        <v>-77600</v>
+        <v>-78000</v>
       </c>
       <c r="K32" s="3">
         <v>2500</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1252900</v>
+        <v>1259800</v>
       </c>
       <c r="E33" s="3">
-        <v>1089600</v>
+        <v>1160100</v>
       </c>
       <c r="F33" s="3">
-        <v>1197700</v>
+        <v>1204300</v>
       </c>
       <c r="G33" s="3">
-        <v>995400</v>
+        <v>1000900</v>
       </c>
       <c r="H33" s="3">
-        <v>1265700</v>
+        <v>1272700</v>
       </c>
       <c r="I33" s="3">
-        <v>1190200</v>
+        <v>1196800</v>
       </c>
       <c r="J33" s="3">
-        <v>666100</v>
+        <v>669800</v>
       </c>
       <c r="K33" s="3">
         <v>546000</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1504,42 +1469,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1252900</v>
+        <v>1259800</v>
       </c>
       <c r="E35" s="3">
-        <v>1089600</v>
+        <v>1160100</v>
       </c>
       <c r="F35" s="3">
-        <v>1197700</v>
+        <v>1204300</v>
       </c>
       <c r="G35" s="3">
-        <v>995400</v>
+        <v>1000900</v>
       </c>
       <c r="H35" s="3">
-        <v>1265700</v>
+        <v>1272700</v>
       </c>
       <c r="I35" s="3">
-        <v>1190200</v>
+        <v>1196800</v>
       </c>
       <c r="J35" s="3">
-        <v>666100</v>
+        <v>669800</v>
       </c>
       <c r="K35" s="3">
         <v>546000</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1534,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1548,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1597,277 +1562,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2071300</v>
+        <v>2082700</v>
       </c>
       <c r="E41" s="3">
-        <v>4171400</v>
+        <v>4194500</v>
       </c>
       <c r="F41" s="3">
-        <v>1531500</v>
+        <v>1540000</v>
       </c>
       <c r="G41" s="3">
-        <v>1322400</v>
+        <v>1329700</v>
       </c>
       <c r="H41" s="3">
-        <v>1021700</v>
+        <v>1027300</v>
       </c>
       <c r="I41" s="3">
-        <v>786700</v>
+        <v>791000</v>
       </c>
       <c r="J41" s="3">
-        <v>999200</v>
+        <v>1004800</v>
       </c>
       <c r="K41" s="3">
         <v>892000</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>491500</v>
+        <v>494300</v>
       </c>
       <c r="E42" s="3">
-        <v>481700</v>
+        <v>484300</v>
       </c>
       <c r="F42" s="3">
-        <v>55100</v>
+        <v>55400</v>
       </c>
       <c r="G42" s="3">
-        <v>68700</v>
+        <v>69000</v>
       </c>
       <c r="H42" s="3">
-        <v>82200</v>
+        <v>82600</v>
       </c>
       <c r="I42" s="3">
-        <v>41900</v>
+        <v>42100</v>
       </c>
       <c r="J42" s="3">
-        <v>38600</v>
+        <v>38800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8426000</v>
+        <v>8472600</v>
       </c>
       <c r="E43" s="3">
-        <v>16484100</v>
+        <v>22384600</v>
       </c>
       <c r="F43" s="3">
-        <v>7928100</v>
+        <v>7971900</v>
       </c>
       <c r="G43" s="3">
-        <v>7699100</v>
+        <v>7741700</v>
       </c>
       <c r="H43" s="3">
-        <v>8020400</v>
+        <v>8064700</v>
       </c>
       <c r="I43" s="3">
-        <v>6912800</v>
+        <v>6951100</v>
       </c>
       <c r="J43" s="3">
-        <v>5480100</v>
+        <v>5510400</v>
       </c>
       <c r="K43" s="3">
         <v>4425400</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3351100</v>
+        <v>3369600</v>
       </c>
       <c r="E44" s="3">
-        <v>6521200</v>
+        <v>6557300</v>
       </c>
       <c r="F44" s="3">
-        <v>3219900</v>
+        <v>3237700</v>
       </c>
       <c r="G44" s="3">
-        <v>6444500</v>
+        <v>6480100</v>
       </c>
       <c r="H44" s="3">
-        <v>3055800</v>
+        <v>3072700</v>
       </c>
       <c r="I44" s="3">
-        <v>2709900</v>
+        <v>2724900</v>
       </c>
       <c r="J44" s="3">
-        <v>2092700</v>
+        <v>2104200</v>
       </c>
       <c r="K44" s="3">
         <v>1792400</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>481400</v>
+        <v>484000</v>
       </c>
       <c r="E45" s="3">
-        <v>1486100</v>
+        <v>1494300</v>
       </c>
       <c r="F45" s="3">
-        <v>1395700</v>
+        <v>1403400</v>
       </c>
       <c r="G45" s="3">
-        <v>2398200</v>
+        <v>2411500</v>
       </c>
       <c r="H45" s="3">
-        <v>864800</v>
+        <v>869600</v>
       </c>
       <c r="I45" s="3">
-        <v>703800</v>
+        <v>707700</v>
       </c>
       <c r="J45" s="3">
-        <v>562100</v>
+        <v>565200</v>
       </c>
       <c r="K45" s="3">
         <v>571800</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14821300</v>
+        <v>14903300</v>
       </c>
       <c r="E46" s="3">
-        <v>14540200</v>
+        <v>14620600</v>
       </c>
       <c r="F46" s="3">
-        <v>14130200</v>
+        <v>14208300</v>
       </c>
       <c r="G46" s="3">
-        <v>13477200</v>
+        <v>13551800</v>
       </c>
       <c r="H46" s="3">
-        <v>13044800</v>
+        <v>13117000</v>
       </c>
       <c r="I46" s="3">
-        <v>11155000</v>
+        <v>11216700</v>
       </c>
       <c r="J46" s="3">
-        <v>9172700</v>
+        <v>9223400</v>
       </c>
       <c r="K46" s="3">
         <v>7681500</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1643600</v>
+        <v>1652600</v>
       </c>
       <c r="E47" s="3">
-        <v>2594100</v>
+        <v>2608500</v>
       </c>
       <c r="F47" s="3">
-        <v>611200</v>
+        <v>614500</v>
       </c>
       <c r="G47" s="3">
-        <v>802700</v>
+        <v>807100</v>
       </c>
       <c r="H47" s="3">
-        <v>557200</v>
+        <v>560300</v>
       </c>
       <c r="I47" s="3">
-        <v>522400</v>
+        <v>525300</v>
       </c>
       <c r="J47" s="3">
-        <v>457700</v>
+        <v>460200</v>
       </c>
       <c r="K47" s="3">
         <v>2873400</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2983500</v>
+        <v>3000000</v>
       </c>
       <c r="E48" s="3">
-        <v>5930000</v>
+        <v>8887500</v>
       </c>
       <c r="F48" s="3">
-        <v>2840600</v>
+        <v>2856400</v>
       </c>
       <c r="G48" s="3">
-        <v>2584300</v>
+        <v>2598600</v>
       </c>
       <c r="H48" s="3">
-        <v>2685700</v>
+        <v>2700500</v>
       </c>
       <c r="I48" s="3">
-        <v>2555600</v>
+        <v>2569800</v>
       </c>
       <c r="J48" s="3">
-        <v>2310000</v>
+        <v>2322700</v>
       </c>
       <c r="K48" s="3">
         <v>1996300</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>451500</v>
+        <v>454000</v>
       </c>
       <c r="E49" s="3">
-        <v>856900</v>
+        <v>1288700</v>
       </c>
       <c r="F49" s="3">
-        <v>416400</v>
+        <v>418700</v>
       </c>
       <c r="G49" s="3">
-        <v>532100</v>
+        <v>535000</v>
       </c>
       <c r="H49" s="3">
-        <v>313700</v>
+        <v>315400</v>
       </c>
       <c r="I49" s="3">
-        <v>313000</v>
+        <v>314800</v>
       </c>
       <c r="J49" s="3">
-        <v>261300</v>
+        <v>262700</v>
       </c>
       <c r="K49" s="3">
         <v>238600</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1897,7 +1862,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1927,37 +1892,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6276800</v>
+        <v>6311600</v>
       </c>
       <c r="E52" s="3">
-        <v>12878600</v>
+        <v>12949800</v>
       </c>
       <c r="F52" s="3">
-        <v>6143700</v>
+        <v>6177700</v>
       </c>
       <c r="G52" s="3">
-        <v>6006200</v>
+        <v>6039400</v>
       </c>
       <c r="H52" s="3">
-        <v>5789000</v>
+        <v>5821100</v>
       </c>
       <c r="I52" s="3">
-        <v>4480000</v>
+        <v>4504800</v>
       </c>
       <c r="J52" s="3">
-        <v>3561200</v>
+        <v>3580900</v>
       </c>
       <c r="K52" s="3">
         <v>405700</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1987,37 +1952,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26176700</v>
+        <v>26321500</v>
       </c>
       <c r="E54" s="3">
-        <v>25604600</v>
+        <v>25746200</v>
       </c>
       <c r="F54" s="3">
-        <v>24142100</v>
+        <v>24275600</v>
       </c>
       <c r="G54" s="3">
-        <v>22897700</v>
+        <v>23024300</v>
       </c>
       <c r="H54" s="3">
-        <v>22390500</v>
+        <v>22514300</v>
       </c>
       <c r="I54" s="3">
-        <v>19026100</v>
+        <v>19131300</v>
       </c>
       <c r="J54" s="3">
-        <v>15762800</v>
+        <v>15850000</v>
       </c>
       <c r="K54" s="3">
         <v>13195600</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2031,7 +1996,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2045,187 +2010,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2773100</v>
+        <v>2788400</v>
       </c>
       <c r="E57" s="3">
-        <v>5173100</v>
+        <v>5201700</v>
       </c>
       <c r="F57" s="3">
-        <v>2313000</v>
+        <v>2325800</v>
       </c>
       <c r="G57" s="3">
-        <v>2353400</v>
+        <v>2366400</v>
       </c>
       <c r="H57" s="3">
-        <v>2064100</v>
+        <v>2075500</v>
       </c>
       <c r="I57" s="3">
-        <v>2176000</v>
+        <v>2188000</v>
       </c>
       <c r="J57" s="3">
-        <v>2197000</v>
+        <v>2209100</v>
       </c>
       <c r="K57" s="3">
         <v>1765800</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3155500</v>
+        <v>3178400</v>
       </c>
       <c r="E58" s="3">
-        <v>6577900</v>
+        <v>9918400</v>
       </c>
       <c r="F58" s="3">
-        <v>3065400</v>
+        <v>3082400</v>
       </c>
       <c r="G58" s="3">
-        <v>3112800</v>
+        <v>3130000</v>
       </c>
       <c r="H58" s="3">
-        <v>2600200</v>
+        <v>2614600</v>
       </c>
       <c r="I58" s="3">
-        <v>2452900</v>
+        <v>2466500</v>
       </c>
       <c r="J58" s="3">
-        <v>1691900</v>
+        <v>1701300</v>
       </c>
       <c r="K58" s="3">
         <v>1718500</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2413700</v>
+        <v>2421600</v>
       </c>
       <c r="E59" s="3">
-        <v>4851200</v>
+        <v>4878000</v>
       </c>
       <c r="F59" s="3">
-        <v>2184600</v>
+        <v>2196700</v>
       </c>
       <c r="G59" s="3">
-        <v>1887400</v>
+        <v>1897800</v>
       </c>
       <c r="H59" s="3">
-        <v>1936600</v>
+        <v>1947300</v>
       </c>
       <c r="I59" s="3">
-        <v>1870200</v>
+        <v>1880500</v>
       </c>
       <c r="J59" s="3">
-        <v>1488600</v>
+        <v>1496900</v>
       </c>
       <c r="K59" s="3">
         <v>1269900</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8342300</v>
+        <v>8388500</v>
       </c>
       <c r="E60" s="3">
-        <v>8293800</v>
+        <v>8339600</v>
       </c>
       <c r="F60" s="3">
-        <v>7563000</v>
+        <v>7604800</v>
       </c>
       <c r="G60" s="3">
-        <v>7303400</v>
+        <v>7343800</v>
       </c>
       <c r="H60" s="3">
-        <v>6601000</v>
+        <v>6637500</v>
       </c>
       <c r="I60" s="3">
-        <v>6499100</v>
+        <v>6535000</v>
       </c>
       <c r="J60" s="3">
-        <v>5377500</v>
+        <v>5407200</v>
       </c>
       <c r="K60" s="3">
         <v>4754200</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4431500</v>
+        <v>4468300</v>
       </c>
       <c r="E61" s="3">
-        <v>4254300</v>
+        <v>4277900</v>
       </c>
       <c r="F61" s="3">
-        <v>4329200</v>
+        <v>4353100</v>
       </c>
       <c r="G61" s="3">
-        <v>3836300</v>
+        <v>3857500</v>
       </c>
       <c r="H61" s="3">
-        <v>4338800</v>
+        <v>4362800</v>
       </c>
       <c r="I61" s="3">
-        <v>2853000</v>
+        <v>2868800</v>
       </c>
       <c r="J61" s="3">
-        <v>2471200</v>
+        <v>2484800</v>
       </c>
       <c r="K61" s="3">
         <v>1635600</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>508000</v>
+        <v>498500</v>
       </c>
       <c r="E62" s="3">
-        <v>1317400</v>
+        <v>1324700</v>
       </c>
       <c r="F62" s="3">
-        <v>751700</v>
+        <v>755800</v>
       </c>
       <c r="G62" s="3">
-        <v>742200</v>
+        <v>746300</v>
       </c>
       <c r="H62" s="3">
-        <v>789000</v>
+        <v>793300</v>
       </c>
       <c r="I62" s="3">
-        <v>628500</v>
+        <v>632000</v>
       </c>
       <c r="J62" s="3">
-        <v>586200</v>
+        <v>589500</v>
       </c>
       <c r="K62" s="3">
         <v>532800</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2220,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2250,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2315,37 +2280,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14064500</v>
+        <v>14142300</v>
       </c>
       <c r="E66" s="3">
-        <v>13933100</v>
+        <v>14010100</v>
       </c>
       <c r="F66" s="3">
-        <v>13305300</v>
+        <v>13378900</v>
       </c>
       <c r="G66" s="3">
-        <v>12589200</v>
+        <v>12658900</v>
       </c>
       <c r="H66" s="3">
-        <v>12437400</v>
+        <v>12506200</v>
       </c>
       <c r="I66" s="3">
-        <v>10575400</v>
+        <v>10633900</v>
       </c>
       <c r="J66" s="3">
-        <v>8905800</v>
+        <v>8955100</v>
       </c>
       <c r="K66" s="3">
         <v>7401000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2324,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2389,7 +2354,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2419,7 +2384,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2449,7 +2414,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2479,37 +2444,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10264000</v>
+        <v>10320700</v>
       </c>
       <c r="E72" s="3">
-        <v>19038100</v>
+        <v>19143400</v>
       </c>
       <c r="F72" s="3">
-        <v>8867700</v>
+        <v>8916800</v>
       </c>
       <c r="G72" s="3">
-        <v>8039300</v>
+        <v>8083800</v>
       </c>
       <c r="H72" s="3">
-        <v>7395500</v>
+        <v>7436400</v>
       </c>
       <c r="I72" s="3">
-        <v>6538400</v>
+        <v>6574600</v>
       </c>
       <c r="J72" s="3">
-        <v>5556700</v>
+        <v>5587500</v>
       </c>
       <c r="K72" s="3">
         <v>5146800</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2539,7 +2504,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2534,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2599,37 +2564,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12112200</v>
+        <v>12179200</v>
       </c>
       <c r="E76" s="3">
-        <v>11671500</v>
+        <v>11736000</v>
       </c>
       <c r="F76" s="3">
-        <v>10836800</v>
+        <v>10896700</v>
       </c>
       <c r="G76" s="3">
-        <v>10308400</v>
+        <v>10365400</v>
       </c>
       <c r="H76" s="3">
-        <v>9953000</v>
+        <v>10008100</v>
       </c>
       <c r="I76" s="3">
-        <v>8450700</v>
+        <v>8497400</v>
       </c>
       <c r="J76" s="3">
-        <v>6857000</v>
+        <v>6894900</v>
       </c>
       <c r="K76" s="3">
         <v>5794600</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2659,12 +2624,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2694,37 +2659,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1252900</v>
+        <v>1259800</v>
       </c>
       <c r="E81" s="3">
-        <v>1089600</v>
+        <v>1160100</v>
       </c>
       <c r="F81" s="3">
-        <v>1197700</v>
+        <v>1204300</v>
       </c>
       <c r="G81" s="3">
-        <v>995400</v>
+        <v>1000900</v>
       </c>
       <c r="H81" s="3">
-        <v>1265700</v>
+        <v>1272700</v>
       </c>
       <c r="I81" s="3">
-        <v>1190200</v>
+        <v>1196800</v>
       </c>
       <c r="J81" s="3">
-        <v>666100</v>
+        <v>669800</v>
       </c>
       <c r="K81" s="3">
         <v>546000</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2738,37 +2703,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>448600</v>
+        <v>451100</v>
       </c>
       <c r="E83" s="3">
-        <v>409500</v>
+        <v>410300</v>
       </c>
       <c r="F83" s="3">
-        <v>392100</v>
+        <v>394200</v>
       </c>
       <c r="G83" s="3">
-        <v>282000</v>
+        <v>283500</v>
       </c>
       <c r="H83" s="3">
-        <v>345700</v>
+        <v>347600</v>
       </c>
       <c r="I83" s="3">
-        <v>319500</v>
+        <v>321300</v>
       </c>
       <c r="J83" s="3">
-        <v>264500</v>
+        <v>265900</v>
       </c>
       <c r="K83" s="3">
         <v>212100</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2798,7 +2763,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2793,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2858,7 +2823,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2888,7 +2853,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2918,37 +2883,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>805900</v>
+        <v>810400</v>
       </c>
       <c r="E89" s="3">
-        <v>2009500</v>
+        <v>1247000</v>
       </c>
       <c r="F89" s="3">
-        <v>1672200</v>
+        <v>1681500</v>
       </c>
       <c r="G89" s="3">
-        <v>1781200</v>
+        <v>1791100</v>
       </c>
       <c r="H89" s="3">
-        <v>759400</v>
+        <v>763600</v>
       </c>
       <c r="I89" s="3">
-        <v>753200</v>
+        <v>757400</v>
       </c>
       <c r="J89" s="3">
-        <v>460900</v>
+        <v>463400</v>
       </c>
       <c r="K89" s="3">
         <v>708700</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2962,37 +2927,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-573100</v>
+        <v>-576300</v>
       </c>
       <c r="E91" s="3">
-        <v>-582300</v>
+        <v>-1116900</v>
       </c>
       <c r="F91" s="3">
-        <v>-507500</v>
+        <v>-510300</v>
       </c>
       <c r="G91" s="3">
-        <v>-355000</v>
+        <v>-356900</v>
       </c>
       <c r="H91" s="3">
-        <v>-422100</v>
+        <v>-424400</v>
       </c>
       <c r="I91" s="3">
-        <v>-480500</v>
+        <v>-483200</v>
       </c>
       <c r="J91" s="3">
-        <v>-421700</v>
+        <v>-424000</v>
       </c>
       <c r="K91" s="3">
         <v>-239200</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3022,7 +2987,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3052,37 +3017,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-531200</v>
+        <v>-534100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1178300</v>
+        <v>-418000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1514400</v>
+        <v>-1522800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1178000</v>
+        <v>-1184500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1062300</v>
+        <v>-1068100</v>
       </c>
       <c r="I94" s="3">
-        <v>-942000</v>
+        <v>-947300</v>
       </c>
       <c r="J94" s="3">
-        <v>-626000</v>
+        <v>-629400</v>
       </c>
       <c r="K94" s="3">
         <v>-620300</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3096,37 +3061,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-367900</v>
+        <v>-369900</v>
       </c>
       <c r="E96" s="3">
-        <v>-347300</v>
+        <v>-349200</v>
       </c>
       <c r="F96" s="3">
-        <v>-314900</v>
+        <v>-316700</v>
       </c>
       <c r="G96" s="3">
-        <v>-337800</v>
+        <v>-339700</v>
       </c>
       <c r="H96" s="3">
-        <v>-339000</v>
+        <v>-340900</v>
       </c>
       <c r="I96" s="3">
-        <v>-215800</v>
+        <v>-217000</v>
       </c>
       <c r="J96" s="3">
-        <v>-181700</v>
+        <v>-182700</v>
       </c>
       <c r="K96" s="3">
         <v>-157000</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3156,7 +3121,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3186,7 +3151,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3216,90 +3181,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-252800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-296100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>103300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-251500</v>
       </c>
-      <c r="E100" s="3">
-        <v>-294500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>102700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-250100</v>
-      </c>
       <c r="H100" s="3">
-        <v>475500</v>
+        <v>478200</v>
       </c>
       <c r="I100" s="3">
-        <v>29100</v>
+        <v>29200</v>
       </c>
       <c r="J100" s="3">
-        <v>195800</v>
+        <v>196800</v>
       </c>
       <c r="K100" s="3">
         <v>-117700</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37700</v>
+        <v>-37900</v>
       </c>
       <c r="E101" s="3">
-        <v>17400</v>
+        <v>24300</v>
       </c>
       <c r="F101" s="3">
-        <v>-51400</v>
+        <v>-51700</v>
       </c>
       <c r="G101" s="3">
-        <v>-47000</v>
+        <v>-47300</v>
       </c>
       <c r="H101" s="3">
-        <v>62400</v>
+        <v>62700</v>
       </c>
       <c r="I101" s="3">
-        <v>44400</v>
+        <v>44600</v>
       </c>
       <c r="J101" s="3">
-        <v>59500</v>
+        <v>59800</v>
       </c>
       <c r="K101" s="3">
         <v>-12700</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="E102" s="3">
-        <v>554200</v>
+        <v>557300</v>
       </c>
       <c r="F102" s="3">
-        <v>209100</v>
+        <v>210300</v>
       </c>
       <c r="G102" s="3">
-        <v>306100</v>
+        <v>307800</v>
       </c>
       <c r="H102" s="3">
-        <v>235000</v>
+        <v>236300</v>
       </c>
       <c r="I102" s="3">
-        <v>-115400</v>
+        <v>-116100</v>
       </c>
       <c r="J102" s="3">
-        <v>90200</v>
+        <v>90700</v>
       </c>
       <c r="K102" s="3">
         <v>-42000</v>
